--- a/biology/Botanique/Sloanea/Sloanea.xlsx
+++ b/biology/Botanique/Sloanea/Sloanea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sloanea est un genre d'arbres tropicaux à feuillage persistant comptant environ 113 à 287 espèces, et dont l'espèce type est Sloanea dentata L..
 Le nom de Sloanea a été attribué en l'honneur de Hans Sloane (1660-1753), médecin naturaliste irlandais.
@@ -512,7 +524,9 @@
           <t>Sélections d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sloanea dentata L.
@@ -524,13 +538,82 @@
 Sloanea sinemariensis Aubl., 1775
 Sloanea suaveolens Tirel
 Sloanea truncata Urb., 1921
-Espèces présentes en Guadeloupe et Martinique
-Sloanea caribaea Krug &amp; Urb. ex Duss
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sloanea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sloanea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sélections d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Guadeloupe et Martinique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sloanea caribaea Krug &amp; Urb. ex Duss
 Sloanea massoni
 Sloanea truncata
-Sloanea sinemaiensis
-Espèces en Nouvelle-Calédonie
-Le genre Sloanea compte 9 espèces endémiques de la Nouvelle-Calédonie[1] : 
+Sloanea sinemaiensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sloanea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sloanea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sélections d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces en Nouvelle-Calédonie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Sloanea compte 9 espèces endémiques de la Nouvelle-Calédonie : 
 Sloanea billardierei
 Sloanea haplopoda
 Sloanea koghiensis
@@ -540,8 +623,43 @@
 Sloanea ramiflora
 Sloanea raynaliana
 Sloanea suaveolens
-Espèces en Guyane
-Le genre Sloanea compte 25 à 27 espèces autochtones en Guyane dont 3 endémiques et 1 subendémique, selon INPN      (17 mars 2022)[2] : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sloanea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sloanea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sélections d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces en Guyane</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Sloanea compte 25 à 27 espèces autochtones en Guyane dont 3 endémiques et 1 subendémique, selon INPN      (17 mars 2022) : 
 Sloanea brachytepala Ducke, 1943
 Sloanea brevipes Benth., 1861
 Sloanea conferta T.D.Penn., 2016 - endémique
@@ -573,36 +691,38 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Sloanea</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sloanea</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 mars 2022)[3] :
-Selon World Flora Online (WFO)       (17 mars 2022)[4] :
-Selon Tropicos                                           (17 mars 2022)[5] (Attention liste brute contenant possiblement des synonymes) :
-Selon Catalogue of Life                                   (1 août 2013)[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 mars 2022) :
+Selon World Flora Online (WFO)       (17 mars 2022) :
+Selon Tropicos                                           (17 mars 2022) (Attention liste brute contenant possiblement des synonymes) :
+Selon Catalogue of Life                                   (1 août 2013) :
 Sloanea amygdalina
 Sloanea berteroana
 Sloanea changii
@@ -619,10 +739,10 @@
 Sloanea sterculiacea
 Sloanea tomentosa
 Sloanea xichouensis
-Selon ITIS      (1 août 2013)[7] :
+Selon ITIS      (1 août 2013) :
 Sloanea amygdalina Griseb.
 Sloanea berteroana Choisy ex DC.
-Selon NCBI  (1 août 2013)[8] :
+Selon NCBI  (1 août 2013) :
 Sloanea australis
 sous-espèce Sloanea australis subsp. parviflora
 Sloanea berteroana
@@ -639,7 +759,7 @@
 Sloanea sogerensis
 Sloanea terniflora
 Sloanea woollsii
-Selon Paleobiology Database                   (1 août 2013)[9] :
+Selon Paleobiology Database                   (1 août 2013) :
 Sloanea messelensis</t>
         </is>
       </c>
